--- a/ProjectWithPOM/src/main/java/Resourses/selectinput.xlsx
+++ b/ProjectWithPOM/src/main/java/Resourses/selectinput.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geeth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geeth\git\ProjectWithPOM\ProjectWithPOM\src\main\java\Resourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACF5084-956D-45B2-AFB9-0B187618B3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CA8D63-A4FC-42A5-BD10-4D93918D52DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{68EA2BA4-023E-4B23-A74A-0F63A6F17CD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{68EA2BA4-023E-4B23-A74A-0F63A6F17CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="inputcolour" sheetId="1" r:id="rId1"/>
     <sheet name="Radiobutton" sheetId="2" r:id="rId2"/>
+    <sheet name="dynamictable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Red</t>
   </si>
@@ -52,6 +53,27 @@
   </si>
   <si>
     <t>Radio button is Not checked</t>
+  </si>
+  <si>
+    <t>Rhona Davidson</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -436,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5B781B-2790-4911-BA48-E49D9CBB8E0F}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -463,4 +485,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FDB450-9830-4215-BB28-D6C23F8F23F3}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectWithPOM/src/main/java/Resourses/selectinput.xlsx
+++ b/ProjectWithPOM/src/main/java/Resourses/selectinput.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geeth\git\ProjectWithPOM\ProjectWithPOM\src\main\java\Resourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CA8D63-A4FC-42A5-BD10-4D93918D52DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC46F5A-6979-4553-815A-B39ED16AB1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{68EA2BA4-023E-4B23-A74A-0F63A6F17CD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{68EA2BA4-023E-4B23-A74A-0F63A6F17CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="inputcolour" sheetId="1" r:id="rId1"/>
     <sheet name="Radiobutton" sheetId="2" r:id="rId2"/>
     <sheet name="dynamictable" sheetId="3" r:id="rId3"/>
+    <sheet name="alertdata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Red</t>
   </si>
@@ -55,33 +56,35 @@
     <t>Radio button is Not checked</t>
   </si>
   <si>
-    <t>Rhona Davidson</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>Salary</t>
+    <t>Sonya</t>
+  </si>
+  <si>
+    <t>You selected Ok</t>
+  </si>
+  <si>
+    <t>You selected Cancel</t>
+  </si>
+  <si>
+    <t>test data for promt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +463,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,40 +493,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FDB450-9830-4215-BB28-D6C23F8F23F3}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FCFECA-C3EA-4103-B956-D4AB3348649A}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>